--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Tableless" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="Tableless" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="WithTable_Duplicate" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Numbers</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>any</t>
   </si>
   <si>
     <t>(A) This is part 1 of 2</t>
@@ -90,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,10 +447,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
   <cols>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
@@ -483,14 +481,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>45213</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,13 +496,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45214</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45216</v>
       </c>
     </row>
   </sheetData>
@@ -537,89 +535,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -645,14 +569,14 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1">
+        <v>45213</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -660,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45214</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -674,10 +598,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45215</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -685,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45216</v>
       </c>
     </row>
   </sheetData>
@@ -697,4 +621,92 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>Numbers</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
   <si>
     <t>ARCtrl Column</t>
@@ -108,40 +111,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="MyTable" ref="A1:E5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="MyTable" ref="A1:F5" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="Numbers"/>
     <tableColumn id="2" name="Strings"/>
     <tableColumn id="3" name="DateTime"/>
-    <tableColumn id="4" name="ARCtrl Column"/>
-    <tableColumn id="5" name="ARCtrl Column "/>
+    <tableColumn id="4" name="Boolean"/>
+    <tableColumn id="5" name="ARCtrl Column"/>
+    <tableColumn id="6" name="ARCtrl Column "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" name="MyOtherTable" displayName="MyOtherTable" ref="B4:F8" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="B4:F8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" name="MyOtherTable" displayName="MyOtherTable" ref="B4:G8" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="B4:G8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="Numbers"/>
     <tableColumn id="2" name="Strings"/>
     <tableColumn id="3" name="DateTime"/>
-    <tableColumn id="4" name="ARCtrl Column"/>
-    <tableColumn id="5" name="ARCtrl Column "/>
+    <tableColumn id="4" name="Boolean"/>
+    <tableColumn id="5" name="ARCtrl Column"/>
+    <tableColumn id="6" name="ARCtrl Column "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
@@ -457,7 +464,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,58 +480,73 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>45214</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>45216</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -537,15 +559,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F8"/>
+  <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -561,58 +583,73 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>45213</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>45214</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>45216</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -625,18 +662,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,58 +689,73 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>45214</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>45215</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>45216</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
@@ -61,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -90,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,12 +458,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
   <cols>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
@@ -511,8 +515,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>45214</v>
+      <c r="C3" s="2">
+        <v>45214.75</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -528,8 +532,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>45215</v>
+      <c r="C4" s="2">
+        <v>45215.83333333333</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
@@ -665,7 +669,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>

--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
@@ -566,10 +566,13 @@
   <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
+  <cols>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -618,8 +621,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
-        <v>45214</v>
+      <c r="D6" s="2">
+        <v>45214.75</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -635,8 +638,8 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
-        <v>45215</v>
+      <c r="D7" s="2">
+        <v>45215.83333333333</v>
       </c>
       <c r="E7" s="1" t="b">
         <v>1</v>

--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
@@ -672,12 +672,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,8 +728,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>45214</v>
+      <c r="C3" s="2">
+        <v>45214.75</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -744,8 +745,8 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
-        <v>45215</v>
+      <c r="C4" s="2">
+        <v>45215.83333333333</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>

--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
@@ -498,7 +498,7 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -518,7 +518,7 @@
       <c r="C3" s="2">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -535,7 +535,7 @@
       <c r="C4" s="2">
         <v>45215.83333333333</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -549,7 +549,7 @@
       <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -566,7 +566,7 @@
   <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
@@ -604,7 +604,7 @@
       <c r="D5" s="1">
         <v>45213</v>
       </c>
-      <c r="E5" s="1" t="b">
+      <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -624,7 +624,7 @@
       <c r="D6" s="2">
         <v>45214.75</v>
       </c>
-      <c r="E6" s="1" t="b">
+      <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -641,7 +641,7 @@
       <c r="D7" s="2">
         <v>45215.83333333333</v>
       </c>
-      <c r="E7" s="1" t="b">
+      <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
       <c r="D8" s="1">
         <v>45216</v>
       </c>
-      <c r="E8" s="1" t="b">
+      <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -672,10 +672,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
   <cols>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -711,7 +711,7 @@
       <c r="C2" s="1">
         <v>45213</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -731,7 +731,7 @@
       <c r="C3" s="2">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
@@ -748,7 +748,7 @@
       <c r="C4" s="2">
         <v>45215.83333333333</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
       <c r="C5" s="1">
         <v>45216</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_FableExceljs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="WithTable" state="visible" r:id="rId4"/>
@@ -93,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,7 +459,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
@@ -540,8 +541,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>4.269</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -566,7 +567,7 @@
   <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
@@ -646,8 +647,8 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" s="3">
+        <v>4.269</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -672,7 +673,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
@@ -753,8 +754,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3">
+        <v>4.269</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
